--- a/medicine/Enfance/Mercè_Canela/Mercè_Canela.xlsx
+++ b/medicine/Enfance/Mercè_Canela/Mercè_Canela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Merc%C3%A8_Canela</t>
+          <t>Mercè_Canela</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mercè Canela, née en 1956 à Sant Guim de Freixenet (Segarra, Catalogne), est une écrivaine et traductrice espagnole d'expression catalane. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Merc%C3%A8_Canela</t>
+          <t>Mercè_Canela</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle étudie l'archéologie à l'université de Barcelone, où elle commence sa carrière avant de  travailler à Bruxelles comme documentariste de l'Union européenne. 
-Elle commence à écrire très jeune et se définit fondamentalement comme écrivaine. En 1976, l'éditeur La Galera publie son premier roman pour adolescents De qui és el bosc?, et elle gagne le prix  Josep M. Folch i Torres avec L’escarabat verd. Elle a publié divers romans de Littérature d'enfance et de jeunesse qui ont reçu plusieurs prix. En 1984, elle a été dans la liste d’honneur de l'Union Internationale pour les Livres de Jeunesse[1] pour Asperú, joglar embruixat. 
+Elle commence à écrire très jeune et se définit fondamentalement comme écrivaine. En 1976, l'éditeur La Galera publie son premier roman pour adolescents De qui és el bosc?, et elle gagne le prix  Josep M. Folch i Torres avec L’escarabat verd. Elle a publié divers romans de Littérature d'enfance et de jeunesse qui ont reçu plusieurs prix. En 1984, elle a été dans la liste d’honneur de l'Union Internationale pour les Livres de Jeunesse pour Asperú, joglar embruixat. 
 Elle a traduit en catalan des œuvres en allemand, français et italien. Elle a aussi publié Un passeig pel Poble Espanyol (Beta, Barcelone, 1998), qui explique l’histoire du Poble Espanyol de Montjuïc à Barcelone. En 1980, elle est membre et plus tard directrice (1998) de la publication Cavall Fort. Elle est aussi directrice de la publication El Tatano (ca).
 </t>
         </is>
